--- a/biology/Histoire de la zoologie et de la botanique/Llewellyn_Ivor_Price/Llewellyn_Ivor_Price.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Llewellyn_Ivor_Price/Llewellyn_Ivor_Price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Llewellyn Ivor Price, né le 9 octobre 1905 à Santa Maria et mort le 9 juin 1980 à Rio Grande do Sul, est l'un des premiers paléontologues brésiliens. Son travail a contribué non seulement au développement de la paléontologie brésilienne mais aussi à la paléontologie mondiale. Il est à l'originire de la découverte de Staurikosaurus, le premier dinosaure découvert au Brésil.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Price est né à Santa Maria. Fils de parents américains, il étudie la chimie et obtient un diplôme en zoologie et géologie aux États-Unis. Après avoir été professeur à Harvard, il retourne au Brésil. Il est mort d'une crise cardiaque à Rio Grande do Sul.
 </t>
@@ -542,9 +556,11 @@
           <t>Prix</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>En 1980, il reçoit le prix José Bonifácio de Andrada e Silva de la Sociedade Brasileira de Geologia[1].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>En 1980, il reçoit le prix José Bonifácio de Andrada e Silva de la Sociedade Brasileira de Geologia.</t>
         </is>
       </c>
     </row>
